--- a/resources/experiment 1/metrics/R2/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9879738076534367</v>
+        <v>0.9893076079202145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9879477110653264</v>
+        <v>0.9890886890142239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9879477110653264</v>
+        <v>0.9885388806307468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9864163982340534</v>
+        <v>0.9871753476865537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9864118244825735</v>
+        <v>0.9871518038431363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9864118244825735</v>
+        <v>0.9850835363180056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9308607398032961</v>
+        <v>0.8557662358341008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9311355280885621</v>
+        <v>0.8545009628653589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9311355280885621</v>
+        <v>0.8209298500268863</v>
       </c>
     </row>
   </sheetData>
